--- a/biology/Botanique/Gaga_(genre)/Gaga_(genre).xlsx
+++ b/biology/Botanique/Gaga_(genre)/Gaga_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaga est un genre de fougères américaines, de la famille des Pteridaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique et taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gaga, proche du genre Cheilanthes dont il se distingue par la phylogénie[1], a été nommé en hommage à la chanteuse Lady Gaga[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gaga, proche du genre Cheilanthes dont il se distingue par la phylogénie, a été nommé en hommage à la chanteuse Lady Gaga.
 Il compte 19 espèces, parmi lesquelles Gaga germanotta, nommée en hommage à la famille de la chanteuse (née Stefani Germanotta).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Gaga est présent en Amérique Centrale, Amérique du Sud, au Mexique et dans le Sud des États-Unis (Arizona et Texas).
 </t>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 mars 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 mars 2013) :
 Gaga angustifolia
 Gaga apiacea
 Gaga arizonica
@@ -596,7 +614,7 @@
 Gaga monstraparva
 Gaga pellaeopsis
 Gaga purpusii
-Selon ITIS      (16 mars 2013)[4] :
+Selon ITIS      (16 mars 2013) :
 Gaga angustifolia (Kunth) Fay W. Li &amp; Windham
 Gaga apiacea (Mickel) Fay W. Li &amp; Windham
 Gaga arizonica (Maxon) Fay W. Li &amp; Windham
@@ -616,7 +634,7 @@
 Gaga monstraparva Fay W. Li &amp; Windham
 Gaga pellaeopsis (Mickel) Fay W. Li &amp; Windham
 Gaga purpusii (T. Reeves) Fay W. Li &amp; Windham
-Selon NCBI  (16 mars 2013)[5] :
+Selon NCBI  (16 mars 2013) :
 Gaga angustifolia
 Gaga apiacea
 Gaga arizonica
@@ -636,7 +654,7 @@
 Gaga monstraparva
 Gaga pellaeopsis
 Gaga purpusii
-Selon Tropicos                                           (16 mars 2013)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 mars 2013) (Attention liste brute contenant possiblement des synonymes) :
 Gaga angustifolia (Kunth) F.W. Li &amp; Windham
 Gaga apiacea (Mickel) F.W. Li &amp; Windham
 Gaga arizonica (Maxon) F.W. Li &amp; Windham
